--- a/Jogos_do_Dia/2023-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>1.08</v>
@@ -653,10 +653,10 @@
         <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="N2" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="O2" t="n">
         <v>1.6</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>1.1</v>
@@ -873,7 +873,7 @@
         <v>2.45</v>
       </c>
       <c r="M4" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="N4" t="n">
         <v>1.42</v>
@@ -936,7 +936,7 @@
         <v>2.44</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -1025,28 +1025,28 @@
         <v>2.34</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>4.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="H9" t="n">
         <v>21</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF9" t="n">
         <v>1.31</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="N10" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
@@ -1584,7 +1584,7 @@
         <v>2.69</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE10" t="n">
         <v>1.33</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G11" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="I11" t="n">
         <v>1.02</v>
@@ -1643,10 +1643,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="N11" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -1753,10 +1753,10 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="I13" t="n">
         <v>1.02</v>
@@ -1863,10 +1863,10 @@
         <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N14" t="n">
         <v>1.83</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.89</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>1.08</v>
@@ -647,16 +647,16 @@
         <v>5.9</v>
       </c>
       <c r="K2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="N2" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="O2" t="n">
         <v>1.6</v>
@@ -680,10 +680,10 @@
         <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>1</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,10 +763,10 @@
         <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -775,10 +775,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -790,10 +790,10 @@
         <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
         <v>1.39</v>
@@ -805,13 +805,13 @@
         <v>2.85</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="AD3" t="n">
         <v>1.38</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.97</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="I4" t="n">
         <v>1.1</v>
@@ -873,10 +873,10 @@
         <v>2.45</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="N4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -900,10 +900,10 @@
         <v>1.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="X4" t="n">
         <v>1.29</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H6" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N6" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1197,10 +1197,10 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="L7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.75</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.12</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G9" t="n">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>17.25</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
@@ -1474,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AE9" t="n">
         <v>1.17</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.23</v>
+        <v>3.55</v>
       </c>
       <c r="H10" t="n">
-        <v>2.91</v>
+        <v>3.46</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.58</v>
       </c>
       <c r="H11" t="n">
-        <v>7.2</v>
+        <v>6.25</v>
       </c>
       <c r="I11" t="n">
         <v>1.02</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.41</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -1753,10 +1753,10 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>5.93</v>
       </c>
       <c r="H13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I13" t="n">
         <v>1.02</v>
@@ -1863,10 +1863,10 @@
         <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N13" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
